--- a/venv/src/mainControllerDoc/mainControls.xlsx
+++ b/venv/src/mainControllerDoc/mainControls.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chrma\Desktop\Ny mappe\controlProjects\venv\src\mainControllerDoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF41E19-027F-49ED-AF59-CB12CC089ADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B8868A-9EE8-4CDF-8460-2B19E787B906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2235" yWindow="3735" windowWidth="29310" windowHeight="16320" xr2:uid="{B9B20F22-3098-410E-8523-4A9F40F57AC5}"/>
+    <workbookView xWindow="7245" yWindow="2790" windowWidth="29895" windowHeight="17505" xr2:uid="{B9B20F22-3098-410E-8523-4A9F40F57AC5}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>A</t>
   </si>
@@ -62,20 +62,34 @@
     <t>hej</t>
   </si>
   <si>
-    <t>Knud Bentsen</t>
-  </si>
-  <si>
     <t>Teleworking</t>
+  </si>
+  <si>
+    <t>Contactinfo</t>
+  </si>
+  <si>
+    <t>Knut Bentz</t>
+  </si>
+  <si>
+    <t>chr.maints@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -98,17 +112,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -421,19 +438,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FFA0323-30B0-4AB6-A767-4E50DF4DD797}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -446,8 +465,11 @@
       <c r="D1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -455,43 +477,55 @@
         <v>44700</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2">
         <v>44739</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" s="2"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C5" s="2"/>
+      <c r="E5" s="3"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{E524CBB5-85B6-4C71-BDBC-5EA61B7BF315}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526C8159-CCE4-4674-93AF-0E5C1B55DB20}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D2"/>
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
     <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -504,8 +538,11 @@
       <c r="D1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -513,7 +550,7 @@
         <v>44700</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>3</v>
       </c>
